--- a/April'21/07.04.2021/Daily Sales Info.xlsx
+++ b/April'21/07.04.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="61">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Rokibul</t>
+  </si>
+  <si>
+    <t>Date:08.04.2021</t>
   </si>
 </sst>
 </file>
@@ -58128,8 +58131,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59809,9 +59812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61477,9 +61480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61542,7 +61545,7 @@
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B3" s="75"/>
       <c r="C3" s="76"/>
